--- a/biology/Botanique/Populus_primaveralepensis/Populus_primaveralepensis.xlsx
+++ b/biology/Botanique/Populus_primaveralepensis/Populus_primaveralepensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Populus primaveralepensis est une espèce de plantes à fleurs de la famille des Salicaceae. Elle est originaire de l'ouest du Mexique. Cette espèce a été découverte en 2009 et décrite en 2019.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Populus primaveralepensis est un arbre mesurant de 5 et 30 mètres de haut mais atteignant le plus souvent une taille de 25 et 30 mètres de hauteur.
 Le tronc mesure entre 0,3 et 1,2 mètre de diamètre à hauteur de poitrine humaine et peut être simple ou ramifié.
-Les branches sont disposées obliquement selon un angle de 45°[2]
+Les branches sont disposées obliquement selon un angle de 45°
 L'écorce est blanchâtre et lisse chez les jeunes sujets mais peu devenir faiblement sillonneux chez les sujets âgés.
 Les feuilles sont unifoliées et sont caduques en chutant en hiver. Les limbes foliaires sont elliptiques ou ovales voir très ovales, dentelés, mesurant de 7 à 18,5 cm de long sur 4 à 14,3 cm de large, à base arrondie et à apex aigu, ils sont tomenteux. Les pétioles mesurent de 2 à 5,4 cm de long et sont pubescents.
 Cette espèce est dioïque c'est-à-dire que les individus de cette espèce sont mono-sexués (chaque pied porte soit des fleurs femelles soit des fleurs mâles). Les inflorescences sont constituées en chatons. Les chatons mâles sont cylindriques, ont une longueur de 1 à 7,5 cm et une largeur de 1 à 2,5 cm, de couleur crème à blanc qui a tendance à brunir en séchant. Les chatons femelles sont également cylindriques, mesurent de 4 à 8 cm de long. La floraison s'effectue d'août à novembre.
@@ -549,9 +563,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Populus primaveralepensis est originaire de la forêt de nuages relique de la réserve de Bosque La Primavera située dans l'État de Jalisco à l'ouest du Mexique[3]. Elle a été découverte dans 4 stations. La plus grande population de cette espèce a été découverte à LlanoGrande et Tala, au long d'une rivière dans le Bosque La Primavera où une centaine d'arbres a été trouvée. La deuxième population a été observée à Tala et est constituée de 8 arbres. Un unique arbre de cette espèce a été découvert au bord d'un affluent du Rio Caliente, à Arenal, dans le Bosque La Primavera et un autre viel arbre a été recensé à 2 km à l'est de Macrolibramiento[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Populus primaveralepensis est originaire de la forêt de nuages relique de la réserve de Bosque La Primavera située dans l'État de Jalisco à l'ouest du Mexique. Elle a été découverte dans 4 stations. La plus grande population de cette espèce a été découverte à LlanoGrande et Tala, au long d'une rivière dans le Bosque La Primavera où une centaine d'arbres a été trouvée. La deuxième population a été observée à Tala et est constituée de 8 arbres. Un unique arbre de cette espèce a été découvert au bord d'un affluent du Rio Caliente, à Arenal, dans le Bosque La Primavera et un autre viel arbre a été recensé à 2 km à l'est de Macrolibramiento.
 Cette espèce occupe une territoire de 48,29 km² mais sa zone d'occurrence est estimée à 97,88 km².
 </t>
         </is>
@@ -581,9 +597,11 @@
           <t>État de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les critères de l'UICN, Populus primaveralepensis devrait être considérée comme une espèce en danger critique d'extinction[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les critères de l'UICN, Populus primaveralepensis devrait être considérée comme une espèce en danger critique d'extinction.
 </t>
         </is>
       </c>
